--- a/metrics/R2/Ceguera.xlsx
+++ b/metrics/R2/Ceguera.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9812507108508813</v>
+        <v>0.9819509257151394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9813618083282148</v>
+        <v>0.9809304356230317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.980972256047522</v>
+        <v>0.9819121885522653</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9575681711325159</v>
+        <v>0.9568894540953035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9592977851920433</v>
+        <v>0.9590391297473838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9599097389228148</v>
+        <v>0.9553318382952813</v>
       </c>
     </row>
   </sheetData>
